--- a/spreadsheet/macrofree/hci_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.ko.xlsx
@@ -1975,17 +1975,17 @@
       </c>
       <c r="B28" s="21" t="inlineStr">
         <is>
-          <t>증권 시세 표시기</t>
+          <t>호스트</t>
         </is>
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>5개 이상의 네트워크 컨트롤러 VM이 배포되어 있습니다.</t>
+          <t>VMSwitch가 컴퓨팅 및 관리 트래픽에 대해 공유되는 경우 관리 트래픽에 VLAN ID로 태그가 지정되어야 합니다</t>
         </is>
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>이렇게 하면 NC 업그레이드 중에 항상 3개 이상의 NC가 활성화됩니다.</t>
+          <t>이렇게 하면 관리 트래픽이 VM 트래픽에 노출되지 않습니다</t>
         </is>
       </c>
       <c r="E28" s="21" t="inlineStr">
@@ -1999,12 +1999,12 @@
         </is>
       </c>
       <c r="G28" s="21" t="n"/>
-      <c r="H28" s="15" t="n"/>
+      <c r="H28" s="15" t="inlineStr"/>
       <c r="J28" s="22" t="n"/>
       <c r="K28" s="22" t="n"/>
       <c r="L28" s="25" t="inlineStr">
         <is>
-          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
+          <t>abc85d0e-0ebd-4589-a777-0fa8ceb1d0f0</t>
         </is>
       </c>
       <c r="M28" s="25" t="n"/>
@@ -2025,13 +2025,17 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>SDN 인프라의 백업이 구성되고 테스트됩니다.</t>
-        </is>
-      </c>
-      <c r="D29" s="21" t="n"/>
+          <t>5개 이상의 네트워크 컨트롤러 VM이 배포되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D29" s="21" t="inlineStr">
+        <is>
+          <t>이렇게 하면 NC 업그레이드 중에 항상 3개 이상의 NC가 활성화됩니다.</t>
+        </is>
+      </c>
       <c r="E29" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2040,16 +2044,12 @@
         </is>
       </c>
       <c r="G29" s="21" t="n"/>
-      <c r="H29" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
-        </is>
-      </c>
+      <c r="H29" s="15" t="n"/>
       <c r="J29" s="22" t="n"/>
       <c r="K29" s="22" t="n"/>
       <c r="L29" s="25" t="inlineStr">
         <is>
-          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
+          <t>eb36f5f4-0fa7-4a2c-85f3-1b1c7c7817c0</t>
         </is>
       </c>
       <c r="M29" s="25" t="n"/>
@@ -2060,23 +2060,23 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="21" t="inlineStr">
         <is>
-          <t>관리 및 모니터링</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B30" s="21" t="inlineStr">
         <is>
-          <t>클러스터</t>
+          <t>증권 시세 표시기</t>
         </is>
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>SCOM Managed Instance는 더 복잡한 모니터링 및 경고 시나리오에 대해 고려되었습니다</t>
+          <t>SDN 인프라의 백업이 구성되고 테스트됩니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
       <c r="E30" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2085,12 +2085,16 @@
         </is>
       </c>
       <c r="G30" s="21" t="n"/>
-      <c r="H30" s="15" t="n"/>
+      <c r="H30" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/networking/sdn/manage/update-backup-restore</t>
+        </is>
+      </c>
       <c r="J30" s="22" t="n"/>
       <c r="K30" s="22" t="n"/>
       <c r="L30" s="25" t="inlineStr">
         <is>
-          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
+          <t>8bc78c85-6028-4a43-af2d-082a0a344909</t>
         </is>
       </c>
       <c r="M30" s="25" t="n"/>
@@ -2111,13 +2115,13 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor, SCOM 또는 타사 솔루션을 사용하여 클러스터에 대한 경고가 구성되었습니다</t>
+          <t>SCOM Managed Instance는 더 복잡한 모니터링 및 경고 시나리오에 대해 고려되었습니다</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
       <c r="E31" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2126,16 +2130,12 @@
         </is>
       </c>
       <c r="G31" s="21" t="n"/>
-      <c r="H31" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
-        </is>
-      </c>
+      <c r="H31" s="15" t="n"/>
       <c r="J31" s="22" t="n"/>
       <c r="K31" s="22" t="n"/>
       <c r="L31" s="25" t="inlineStr">
         <is>
-          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
+          <t>51eaa4b6-b9a7-43e1-a7dc-634d3107bc6d</t>
         </is>
       </c>
       <c r="M31" s="25" t="n"/>
@@ -2156,13 +2156,13 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>클러스터 수준에서 Insights가 활성화되었으며 모든 노드가 데이터를 보고하고 있습니다.</t>
+          <t>Azure Monitor, SCOM 또는 타사 솔루션을 사용하여 클러스터에 대한 경고가 구성되었습니다</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
       <c r="E32" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2173,7 +2173,7 @@
       <c r="G32" s="21" t="n"/>
       <c r="H32" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/setup-hci-system-alerts</t>
         </is>
       </c>
       <c r="I32" s="15" t="n"/>
@@ -2181,7 +2181,7 @@
       <c r="K32" s="22" t="n"/>
       <c r="L32" s="25" t="inlineStr">
         <is>
-          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
+          <t>831f5aca-99ef-41e7-8263-9509f5093b43</t>
         </is>
       </c>
       <c r="M32" s="25" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitoring Agent가 호스트에 배포되었으며 적절한 데이터 수집 규칙이 구성되었습니다.</t>
+          <t>클러스터 수준에서 Insights가 활성화되었으며 모든 노드가 데이터를 보고하고 있습니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2227,7 +2227,7 @@
       <c r="K33" s="23" t="n"/>
       <c r="L33" s="25" t="inlineStr">
         <is>
-          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
+          <t>f95d0e7e-9f61-476d-bf65-59f2454d1d39</t>
         </is>
       </c>
       <c r="M33" s="25" t="n"/>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B34" s="21" t="inlineStr">
         <is>
-          <t>하드웨어</t>
+          <t>클러스터</t>
         </is>
       </c>
       <c r="C34" s="21" t="inlineStr">
         <is>
-          <t>관련 하드웨어 모니터링이 구성되었습니다.</t>
+          <t>Azure Monitoring Agent가 호스트에 배포되었으며 적절한 데이터 수집 규칙이 구성되었습니다.</t>
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
@@ -2263,13 +2263,17 @@
         </is>
       </c>
       <c r="G34" s="21" t="n"/>
-      <c r="H34" s="15" t="n"/>
+      <c r="H34" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/monitor-hci-single?tabs=22h2-and-later</t>
+        </is>
+      </c>
       <c r="I34" s="15" t="n"/>
       <c r="J34" s="22" t="n"/>
       <c r="K34" s="22" t="n"/>
       <c r="L34" s="25" t="inlineStr">
         <is>
-          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
+          <t>f4250fcb-ff53-40c9-b304-3560464fd90c</t>
         </is>
       </c>
       <c r="M34" s="25" t="n"/>
@@ -2290,7 +2294,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>관련 하드웨어 경고가 구성되었습니다.</t>
+          <t>관련 하드웨어 모니터링이 구성되었습니다.</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2305,17 +2309,13 @@
         </is>
       </c>
       <c r="G35" s="21" t="n"/>
-      <c r="H35" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
-        </is>
-      </c>
+      <c r="H35" s="15" t="n"/>
       <c r="I35" s="15" t="n"/>
       <c r="J35" s="22" t="n"/>
       <c r="K35" s="22" t="n"/>
       <c r="L35" s="25" t="inlineStr">
         <is>
-          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
+          <t>6143af1d-0d1a-4163-b1c9-662f7459bb98</t>
         </is>
       </c>
       <c r="M35" s="25" t="n"/>
@@ -2326,23 +2326,23 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>관리 및 모니터링</t>
         </is>
       </c>
       <c r="B36" s="21" t="inlineStr">
         <is>
-          <t>VM 관리 - 리소스 브리지</t>
+          <t>하드웨어</t>
         </is>
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>Azure CLI는 WAC에서 RB 관리를 사용하도록 설정하기 위해 모든 노드에 설치되었습니다</t>
+          <t>관련 하드웨어 경고가 구성되었습니다.</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
       <c r="E36" s="21" t="inlineStr">
         <is>
-          <t>낮다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2351,13 +2351,17 @@
         </is>
       </c>
       <c r="G36" s="21" t="n"/>
-      <c r="H36" s="15" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/health-service-overview</t>
+        </is>
+      </c>
       <c r="I36" s="15" t="n"/>
       <c r="J36" s="22" t="n"/>
       <c r="K36" s="22" t="n"/>
       <c r="L36" s="25" t="inlineStr">
         <is>
-          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
+          <t>9cbdf225-549a-41cf-9c97-794766a6f2b0</t>
         </is>
       </c>
       <c r="M36" s="25" t="n"/>
@@ -2368,7 +2372,7 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B37" s="21" t="inlineStr">
@@ -2378,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>DHCP는 Azure에서 VM을 배포할 때 게스트 구성을 지원하기 위해 클러스터에서 사용할 수 있습니다</t>
+          <t>Azure CLI는 WAC에서 RB 관리를 사용하도록 설정하기 위해 모든 노드에 설치되었습니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2399,7 +2403,7 @@
       <c r="K37" s="22" t="n"/>
       <c r="L37" s="25" t="inlineStr">
         <is>
-          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
+          <t>c0da5bbd-0f0d-4a26-98ec-38c9cc42b323</t>
         </is>
       </c>
       <c r="M37" s="25" t="n"/>
@@ -2410,23 +2414,23 @@
     <row r="38" ht="16.5" customHeight="1">
       <c r="A38" s="21" t="inlineStr">
         <is>
-          <t>백업 및 재해 복구</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B38" s="21" t="inlineStr">
         <is>
-          <t>VM (가상 머신)</t>
+          <t>VM 관리 - 리소스 브리지</t>
         </is>
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>HCI VM의 백업은 MABS 또는 타사 솔루션을 사용하여 구성되었습니다</t>
+          <t>DHCP는 Azure에서 VM을 배포할 때 게스트 구성을 지원하기 위해 클러스터에서 사용할 수 있습니다</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
       <c r="E38" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>낮다</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2435,17 +2439,13 @@
         </is>
       </c>
       <c r="G38" s="21" t="n"/>
-      <c r="H38" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
-        </is>
-      </c>
+      <c r="H38" s="15" t="n"/>
       <c r="I38" s="15" t="n"/>
       <c r="J38" s="22" t="n"/>
       <c r="K38" s="22" t="n"/>
       <c r="L38" s="25" t="inlineStr">
         <is>
-          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
+          <t>a8ecf23c-c048-4fa9-b87b-51ebfb409863</t>
         </is>
       </c>
       <c r="M38" s="25" t="n"/>
@@ -2456,17 +2456,17 @@
     <row r="39" ht="16.5" customHeight="1">
       <c r="A39" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>백업 및 재해 복구</t>
         </is>
       </c>
       <c r="B39" s="21" t="inlineStr">
         <is>
-          <t>클러스터 구성</t>
+          <t>VM (가상 머신)</t>
         </is>
       </c>
       <c r="C39" s="21" t="inlineStr">
         <is>
-          <t>클러스터 구성 또는 구성 스크립트가 문서화되고 유지 관리되었습니다.</t>
+          <t>HCI VM의 백업은 MABS 또는 타사 솔루션을 사용하여 구성되었습니다</t>
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
@@ -2481,13 +2481,17 @@
         </is>
       </c>
       <c r="G39" s="21" t="n"/>
-      <c r="H39" s="15" t="n"/>
+      <c r="H39" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/backup/back-up-azure-stack-hyperconverged-infrastructure-virtual-machines</t>
+        </is>
+      </c>
       <c r="I39" s="15" t="n"/>
       <c r="J39" s="22" t="n"/>
       <c r="K39" s="22" t="n"/>
       <c r="L39" s="25" t="inlineStr">
         <is>
-          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
+          <t>074541e3-fe08-458a-8062-32d13dcc10c6</t>
         </is>
       </c>
       <c r="M39" s="25" t="n"/>
@@ -2508,7 +2512,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>클러스터 감시가 구성되었습니다.</t>
+          <t>클러스터 구성 또는 구성 스크립트가 문서화되고 유지 관리되었습니다.</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2523,17 +2527,13 @@
         </is>
       </c>
       <c r="G40" s="21" t="n"/>
-      <c r="H40" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
-        </is>
-      </c>
+      <c r="H40" s="15" t="n"/>
       <c r="I40" s="15" t="n"/>
       <c r="J40" s="22" t="n"/>
       <c r="K40" s="22" t="n"/>
       <c r="L40" s="25" t="inlineStr">
         <is>
-          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
+          <t>48f7ae57-1035-4101-8a38-fbe163d03e8a</t>
         </is>
       </c>
       <c r="M40" s="25" t="n"/>
@@ -2554,13 +2554,13 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>Windows 및 하드웨어 업데이트(사용 가능한 경우)에 대해 Cluster-Aware 업데이트가 구성되었습니다.</t>
+          <t>노드가 5개 미만인 클러스터에 대해 클러스터 감시가 구성되었습니다.</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
       <c r="E41" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2571,7 +2571,7 @@
       <c r="G41" s="21" t="n"/>
       <c r="H41" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/witness</t>
         </is>
       </c>
       <c r="I41" s="15" t="n"/>
@@ -2579,7 +2579,7 @@
       <c r="K41" s="22" t="n"/>
       <c r="L41" s="25" t="inlineStr">
         <is>
-          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
+          <t>f2a6a19a-ffe6-444d-badb-cb336c8e7b50</t>
         </is>
       </c>
       <c r="M41" s="25" t="n"/>
@@ -2600,13 +2600,13 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>구성된 클러스터에 대해 클러스터 유효성 검사가 실행되었습니다.</t>
+          <t>Windows 및 하드웨어 업데이트(사용 가능한 경우)에 대해 Cluster-Aware 업데이트가 구성되었습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
       <c r="E42" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2617,7 +2617,7 @@
       <c r="G42" s="21" t="n"/>
       <c r="H42" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/update-cluster</t>
         </is>
       </c>
       <c r="I42" s="15" t="n"/>
@@ -2625,7 +2625,7 @@
       <c r="K42" s="22" t="n"/>
       <c r="L42" s="25" t="inlineStr">
         <is>
-          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
+          <t>a47339fe-62c5-44a0-bb83-3d46ef16292f</t>
         </is>
       </c>
       <c r="M42" s="25" t="n"/>
@@ -2646,13 +2646,13 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>Azure 혜택은 클러스터 및 VM 수준에서 사용하도록 설정되었습니다.</t>
+          <t>구성된 클러스터에 대해 클러스터 유효성 검사가 실행되었습니다.</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
       <c r="E43" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2663,7 +2663,7 @@
       <c r="G43" s="21" t="n"/>
       <c r="H43" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/deploy/validate</t>
         </is>
       </c>
       <c r="I43" s="15" t="n"/>
@@ -2671,7 +2671,7 @@
       <c r="K43" s="23" t="n"/>
       <c r="L43" s="25" t="inlineStr">
         <is>
-          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
+          <t>7f1d6fe8-3079-44ea-8ea6-14494d1aa470</t>
         </is>
       </c>
       <c r="M43" s="25" t="n"/>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>환경의 유효성을 검사하기 위해 환경 검사기 모듈이 실행되었습니다.</t>
+          <t>Azure 혜택은 클러스터 및 VM 수준에서 사용하도록 설정되었습니다.</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
@@ -2709,7 +2709,7 @@
       <c r="G44" s="21" t="n"/>
       <c r="H44" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
         </is>
       </c>
       <c r="I44" s="15" t="n"/>
@@ -2717,7 +2717,7 @@
       <c r="K44" s="22" t="n"/>
       <c r="L44" s="25" t="inlineStr">
         <is>
-          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
+          <t>81693af0-5638-4aa2-a153-1d6189df30a7</t>
         </is>
       </c>
       <c r="M44" s="25" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>HCI 클러스터 및 노드 Active Directory 조직 구성 단위에 대한 그룹 정책 상속이 차단되었거나 적용된 정책이 호환성 문제(일반적으로 WinRM 및 PowerShell 실행 정책)에 대해 평가되었습니다.</t>
+          <t>환경의 유효성을 검사하기 위해 환경 검사기 모듈이 실행되었습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2755,14 +2755,14 @@
       <c r="G45" s="21" t="n"/>
       <c r="H45" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/use-environment-checker</t>
         </is>
       </c>
       <c r="J45" s="22" t="n"/>
       <c r="K45" s="22" t="n"/>
       <c r="L45" s="25" t="inlineStr">
         <is>
-          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
+          <t>8c967ee8-8170-4537-a28d-33431cd3632a</t>
         </is>
       </c>
       <c r="M45" s="25" t="n"/>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>WAC는 최신 릴리스에 있으며 확장을 자동으로 업그레이드하도록 구성되어 있습니다.</t>
+          <t>HCI 클러스터 및 노드 Active Directory 조직 구성 단위에 대한 그룹 정책 상속이 차단되었거나 적용된 정책이 호환성 문제(일반적으로 WinRM 및 PowerShell 실행 정책)에 대해 평가되었습니다.</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2798,13 +2798,17 @@
         </is>
       </c>
       <c r="G46" s="21" t="n"/>
-      <c r="H46" s="15" t="n"/>
+      <c r="H46" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-benefits</t>
+        </is>
+      </c>
       <c r="I46" s="15" t="n"/>
       <c r="J46" s="22" t="n"/>
       <c r="K46" s="22" t="n"/>
       <c r="L46" s="25" t="inlineStr">
         <is>
-          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
+          <t>43ffbfab-766e-4950-a102-78b479136e4d</t>
         </is>
       </c>
       <c r="M46" s="25" t="n"/>
@@ -2815,17 +2819,17 @@
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="21" t="inlineStr">
         <is>
-          <t>네트워킹</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>스트레치 클러스터링</t>
+          <t>클러스터 구성</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>동기 복제가 AAD로 구성되는 경우 각 사이트 간에 5ms 미만의 대기 시간이 있습니다</t>
+          <t>WAC는 최신 릴리스에 있으며 확장을 자동으로 업그레이드하도록 구성되어 있습니다.</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2846,7 +2850,7 @@
       <c r="K47" s="22" t="n"/>
       <c r="L47" s="25" t="inlineStr">
         <is>
-          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
+          <t>e6a3f3a7-4a7d-49e2-985a-6e39dd284027</t>
         </is>
       </c>
       <c r="M47" s="25" t="n"/>
@@ -2857,7 +2861,7 @@
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="21" t="inlineStr">
         <is>
-          <t>작업</t>
+          <t>네트워킹</t>
         </is>
       </c>
       <c r="B48" s="21" t="inlineStr">
@@ -2867,13 +2871,13 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>사이트 오류 및 복구에 대한 자세한 계획이 있습니다</t>
+          <t>동기 복제가 AAD로 구성되는 경우 각 사이트 간에 5ms 미만의 대기 시간이 있습니다</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
       <c r="E48" s="21" t="inlineStr">
         <is>
-          <t>높다</t>
+          <t>보통</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2882,12 +2886,16 @@
         </is>
       </c>
       <c r="G48" s="21" t="n"/>
-      <c r="H48" s="15" t="n"/>
+      <c r="H48" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr</t>
+        </is>
+      </c>
       <c r="J48" s="22" t="n"/>
       <c r="K48" s="22" t="n"/>
       <c r="L48" s="25" t="inlineStr">
         <is>
-          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
+          <t>d1caa31f-cc26-42b2-b92f-2b667c0e6020</t>
         </is>
       </c>
       <c r="M48" s="25" t="n"/>
@@ -2908,13 +2916,13 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>두 사이트의 각 복제 네트워크에 대해 별도의 vLAN 및 네트워크가 사용됩니다</t>
+          <t>확장된 VLAN 구성에서 제외된 관리, 복제 및 스토리지 네트워크는 라우팅되고 서로 다른 서브넷에 있습니다</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
       <c r="E49" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2928,7 +2936,7 @@
       <c r="K49" s="22" t="n"/>
       <c r="L49" s="25" t="inlineStr">
         <is>
-          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+          <t>3277558e-3155-4088-b49a-78594cb4ce1a</t>
         </is>
       </c>
       <c r="M49" s="25" t="n"/>
@@ -2939,23 +2947,23 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="21" t="inlineStr">
         <is>
-          <t>백업 및 재해 복구</t>
+          <t>작업</t>
         </is>
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>재해 복구</t>
+          <t>스트레치 클러스터링</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>Azure Site Recovery는 DR 목적으로 고려되었습니다.</t>
+          <t>사이트 오류 및 복구에 대한 자세한 계획이 있습니다</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
       <c r="E50" s="21" t="inlineStr">
         <is>
-          <t>보통</t>
+          <t>높다</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2964,17 +2972,13 @@
         </is>
       </c>
       <c r="G50" s="21" t="n"/>
-      <c r="H50" s="15" t="inlineStr">
-        <is>
-          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
-        </is>
-      </c>
+      <c r="H50" s="15" t="n"/>
       <c r="I50" s="15" t="n"/>
       <c r="J50" s="22" t="n"/>
       <c r="K50" s="22" t="n"/>
       <c r="L50" s="25" t="inlineStr">
         <is>
-          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+          <t>baed6066-8531-44ba-bd94-38cbabbf4099</t>
         </is>
       </c>
       <c r="M50" s="25" t="n"/>
@@ -2983,147 +2987,404 @@
       <c r="P50" s="25" t="n"/>
     </row>
     <row r="51" ht="16.5" customHeight="1">
-      <c r="A51" s="21" t="n"/>
-      <c r="B51" s="21" t="n"/>
-      <c r="C51" s="21" t="n"/>
+      <c r="A51" s="21" t="inlineStr">
+        <is>
+          <t>네트워킹</t>
+        </is>
+      </c>
+      <c r="B51" s="21" t="inlineStr">
+        <is>
+          <t>스트레치 클러스터링</t>
+        </is>
+      </c>
+      <c r="C51" s="21" t="inlineStr">
+        <is>
+          <t>두 사이트의 각 복제 네트워크에 대해 별도의 vLAN 및 네트워크가 사용됩니다</t>
+        </is>
+      </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G51" s="21" t="n"/>
       <c r="H51" s="15" t="n"/>
       <c r="I51" s="15" t="n"/>
       <c r="J51" s="22" t="n"/>
       <c r="K51" s="22" t="n"/>
-      <c r="L51" s="25" t="n"/>
+      <c r="L51" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b4</t>
+        </is>
+      </c>
       <c r="M51" s="25" t="n"/>
       <c r="N51" s="25" t="n"/>
       <c r="O51" s="25" t="n"/>
       <c r="P51" s="25" t="n"/>
     </row>
     <row r="52" ht="16.5" customHeight="1">
-      <c r="A52" s="21" t="n"/>
-      <c r="B52" s="21" t="n"/>
-      <c r="C52" s="21" t="n"/>
+      <c r="A52" s="21" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B52" s="21" t="inlineStr">
+        <is>
+          <t>스트레치 클러스터링</t>
+        </is>
+      </c>
+      <c r="C52" s="21" t="inlineStr">
+        <is>
+          <t>노드가 5개 미만인 클러스터에 대한 클러스터 쿼럼에 대해 세 번째 사이트에서 클라우드 감시 또는 파일 공유 감시를 사용합니다</t>
+        </is>
+      </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G52" s="21" t="n"/>
-      <c r="H52" s="15" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="I52" s="15" t="n"/>
       <c r="J52" s="22" t="n"/>
       <c r="K52" s="22" t="n"/>
-      <c r="L52" s="25" t="n"/>
+      <c r="L52" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b5</t>
+        </is>
+      </c>
       <c r="M52" s="25" t="n"/>
       <c r="N52" s="25" t="n"/>
       <c r="O52" s="25" t="n"/>
       <c r="P52" s="25" t="n"/>
     </row>
     <row r="53" ht="16.5" customHeight="1">
-      <c r="A53" s="21" t="n"/>
-      <c r="B53" s="21" t="n"/>
-      <c r="C53" s="21" t="n"/>
+      <c r="A53" s="21" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B53" s="21" t="inlineStr">
+        <is>
+          <t>스트레치 클러스터링</t>
+        </is>
+      </c>
+      <c r="C53" s="21" t="inlineStr">
+        <is>
+          <t>데이터 중복 제거를 사용하는 경우 기본/소스 볼륨에서만 사용하도록 설정합니다</t>
+        </is>
+      </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G53" s="21" t="n"/>
-      <c r="H53" s="15" t="n"/>
+      <c r="H53" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/architecture/hybrid/azure-stack-hci-dr#cost-optimization</t>
+        </is>
+      </c>
       <c r="J53" s="22" t="n"/>
       <c r="K53" s="22" t="n"/>
-      <c r="L53" s="25" t="n"/>
+      <c r="L53" s="25" t="inlineStr">
+        <is>
+          <t>8e62945f-b9ac-4a5c-a4e4-836f527010b6</t>
+        </is>
+      </c>
       <c r="M53" s="25" t="n"/>
       <c r="N53" s="25" t="n"/>
       <c r="O53" s="25" t="n"/>
       <c r="P53" s="25" t="n"/>
     </row>
     <row r="54" ht="16.5" customHeight="1">
-      <c r="A54" s="21" t="n"/>
-      <c r="B54" s="21" t="n"/>
-      <c r="C54" s="21" t="n"/>
+      <c r="A54" s="21" t="inlineStr">
+        <is>
+          <t>작업</t>
+        </is>
+      </c>
+      <c r="B54" s="21" t="inlineStr">
+        <is>
+          <t>스트레치 클러스터링</t>
+        </is>
+      </c>
+      <c r="C54" s="21" t="inlineStr">
+        <is>
+          <t>스토리지 백업 로그 볼륨은 더 빠르거나(이상적으로는) 적어도 용량 스토리지만큼 빨라야 합니다</t>
+        </is>
+      </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>높다</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G54" s="21" t="n"/>
-      <c r="H54" s="15" t="n"/>
+      <c r="H54" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/storage-replica/stretch-cluster-replication-using-shared-storage#provision-operating-system-features-roles-storage-and-network</t>
+        </is>
+      </c>
       <c r="I54" s="15" t="n"/>
       <c r="J54" s="22" t="n"/>
       <c r="K54" s="22" t="n"/>
-      <c r="L54" s="25" t="n"/>
+      <c r="L54" s="25" t="inlineStr">
+        <is>
+          <t>ac527887-f6f4-40a3-b883-e04d704f013b</t>
+        </is>
+      </c>
       <c r="M54" s="25" t="n"/>
       <c r="N54" s="25" t="n"/>
       <c r="O54" s="25" t="n"/>
       <c r="P54" s="25" t="n"/>
     </row>
     <row r="55" ht="16.5" customHeight="1">
-      <c r="A55" s="21" t="n"/>
-      <c r="B55" s="21" t="n"/>
-      <c r="C55" s="21" t="n"/>
+      <c r="A55" s="21" t="inlineStr">
+        <is>
+          <t>백업 및 재해 복구</t>
+        </is>
+      </c>
+      <c r="B55" s="21" t="inlineStr">
+        <is>
+          <t>재해 복구</t>
+        </is>
+      </c>
+      <c r="C55" s="21" t="inlineStr">
+        <is>
+          <t>Azure Site Recovery는 DR 목적으로 고려되었습니다.</t>
+        </is>
+      </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G55" s="21" t="n"/>
-      <c r="H55" s="15" t="n"/>
+      <c r="H55" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure-stack/hci/manage/azure-site-recovery</t>
+        </is>
+      </c>
       <c r="J55" s="22" t="n"/>
       <c r="K55" s="22" t="n"/>
-      <c r="L55" s="25" t="n"/>
+      <c r="L55" s="25" t="inlineStr">
+        <is>
+          <t>8ea49f70-1038-4283-b0c4-230165d3eabc</t>
+        </is>
+      </c>
       <c r="M55" s="25" t="n"/>
       <c r="N55" s="25" t="n"/>
       <c r="O55" s="25" t="n"/>
       <c r="P55" s="25" t="n"/>
     </row>
     <row r="56" ht="16.5" customHeight="1">
-      <c r="A56" s="21" t="n"/>
-      <c r="B56" s="21" t="n"/>
-      <c r="C56" s="21" t="n"/>
+      <c r="A56" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B56" s="21" t="inlineStr">
+        <is>
+          <t>호스트</t>
+        </is>
+      </c>
+      <c r="C56" s="21" t="inlineStr">
+        <is>
+          <t>BitLocker는 적절한 경우 볼륨 암호화를 위해 CSV에서 사용하도록 설정되었습니다</t>
+        </is>
+      </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G56" s="21" t="n"/>
-      <c r="H56" s="15" t="n"/>
+      <c r="H56" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/operating-system-security/data-protection/bitlocker/protecting-cluster-shared-volumes-and-storage-area-networks-with-bitlocker</t>
+        </is>
+      </c>
       <c r="J56" s="22" t="n"/>
       <c r="K56" s="22" t="n"/>
-      <c r="L56" s="25" t="n"/>
+      <c r="L56" s="25" t="inlineStr">
+        <is>
+          <t>03e65fdc-2628-4a1a-ba2e-a5174340ba52</t>
+        </is>
+      </c>
       <c r="M56" s="25" t="n"/>
       <c r="N56" s="25" t="n"/>
       <c r="O56" s="25" t="n"/>
       <c r="P56" s="25" t="n"/>
     </row>
     <row r="57" ht="16.5" customHeight="1">
-      <c r="A57" s="21" t="n"/>
-      <c r="B57" s="21" t="n"/>
-      <c r="C57" s="21" t="n"/>
+      <c r="A57" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B57" s="21" t="inlineStr">
+        <is>
+          <t>호스트</t>
+        </is>
+      </c>
+      <c r="C57" s="21" t="inlineStr">
+        <is>
+          <t>적절한 경우 SMB 암호화가 사용하도록 설정되었습니다.</t>
+        </is>
+      </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G57" s="21" t="n"/>
-      <c r="H57" s="15" t="n"/>
+      <c r="H57" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows-server/storage/file-server/smb-security</t>
+        </is>
+      </c>
       <c r="J57" s="22" t="n"/>
       <c r="K57" s="22" t="n"/>
-      <c r="L57" s="25" t="n"/>
+      <c r="L57" s="25" t="inlineStr">
+        <is>
+          <t>9645d2e6-ba28-453c-b6d5-d9ef29fc34be</t>
+        </is>
+      </c>
       <c r="M57" s="25" t="n"/>
       <c r="N57" s="25" t="n"/>
       <c r="O57" s="25" t="n"/>
       <c r="P57" s="25" t="n"/>
     </row>
     <row r="58" ht="16.5" customHeight="1">
-      <c r="A58" s="21" t="n"/>
-      <c r="B58" s="21" t="n"/>
-      <c r="C58" s="21" t="n"/>
+      <c r="A58" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B58" s="21" t="inlineStr">
+        <is>
+          <t>호스트</t>
+        </is>
+      </c>
+      <c r="C58" s="21" t="inlineStr">
+        <is>
+          <t>모든 노드에서 Microsoft Defender 바이러스 백신을 사용할 수 있습니다.</t>
+        </is>
+      </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G58" s="21" t="n"/>
-      <c r="H58" s="15" t="n"/>
+      <c r="H58" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/microsoft-365/security/defender-endpoint/microsoft-defender-antivirus-on-windows-server</t>
+        </is>
+      </c>
       <c r="J58" s="22" t="n"/>
       <c r="K58" s="22" t="n"/>
-      <c r="L58" s="25" t="n"/>
+      <c r="L58" s="25" t="inlineStr">
+        <is>
+          <t>8f03437a-5068-4486-9a78-0402ce771298</t>
+        </is>
+      </c>
       <c r="M58" s="25" t="n"/>
       <c r="N58" s="25" t="n"/>
       <c r="O58" s="25" t="n"/>
       <c r="P58" s="25" t="n"/>
     </row>
     <row r="59" ht="16.5" customHeight="1">
-      <c r="A59" s="21" t="n"/>
-      <c r="B59" s="21" t="n"/>
-      <c r="C59" s="21" t="n"/>
+      <c r="A59" s="21" t="inlineStr">
+        <is>
+          <t>안전</t>
+        </is>
+      </c>
+      <c r="B59" s="21" t="inlineStr">
+        <is>
+          <t>호스트</t>
+        </is>
+      </c>
+      <c r="C59" s="21" t="inlineStr">
+        <is>
+          <t>적절한 경우 Credential Guard가 구성되었습니다.</t>
+        </is>
+      </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>확인되지 않음</t>
+        </is>
+      </c>
       <c r="G59" s="21" t="n"/>
-      <c r="H59" s="15" t="n"/>
+      <c r="H59" s="15" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/windows/security/identity-protection/credential-guard/credential-guard-manage</t>
+        </is>
+      </c>
       <c r="J59" s="22" t="n"/>
       <c r="K59" s="22" t="n"/>
-      <c r="L59" s="25" t="n"/>
+      <c r="L59" s="25" t="inlineStr">
+        <is>
+          <t>dba6b211-fc02-43b3-b7c8-f163c188332e</t>
+        </is>
+      </c>
       <c r="M59" s="25" t="n"/>
       <c r="N59" s="25" t="n"/>
       <c r="O59" s="25" t="n"/>
@@ -7010,7 +7271,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="F8:F51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F60" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/macrofree/hci_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/hci_checklist.ko.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>계획된 모든 스토리지 풀은 직접 연결된 스토리지(SATA, SAS, NVMe)를 사용해야 합니다.</t>
+          <t>계획된 모든 스토리지 풀은 직접 연결 스토리지(SATA, SAS, NVMe)를 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>디스크는 모든 노드에서 대칭입니다</t>
+          <t>디스크는 모든 노드에서 대칭입니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
         <is>
-          <t>패리티 유형 디스크 중복성은 낮은 I/O 볼륨(백업/보관)에만 사용해야 합니다.</t>
+          <t>패리티 유형 디스크 중복성은 낮은 I/O 볼륨(백업/아카이브)에만 사용해야 합니다.</t>
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="B12" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>'구분된 할당'은 다중 노드 오류에서 볼륨 복원력을 향상시키기 위해 고려되었습니다.</t>
+          <t>'구분된 할당'은 다중 노드 오류에서 볼륨 복원력을 개선하기 위해 고려되었습니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B13" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>CSV는 노드 수의 배수로 만들어집니다</t>
+          <t>CSV는 노드 수의 배수로 생성됩니다.</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B15" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C15" s="21" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>S2D (에스투디)</t>
+          <t>S2D 시리즈</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="D16" s="21" t="inlineStr">
         <is>
-          <t>VMFleet은 스토리지 하위 시스템의 성능을 측정하는 데 사용할 수 있는 도구로, 워크로드 배포 전에 성능을 기준으로 삼는 데 가장 적합합니다</t>
+          <t>VMFleet은 스토리지 하위 시스템의 성능을 측정하는 데 사용할 수 있는 툴로, 워크로드 배포 전에 성능을 기준으로 하는 데 가장 적합합니다</t>
         </is>
       </c>
       <c r="E16" s="21" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>CSV 메모리 내 읽기 캐싱이 사용하도록 설정되고 올바르게 구성되었습니다.</t>
+          <t>CSV 메모리 내 읽기 캐싱이 활성화되고 올바르게 구성되었습니다.</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>호스트 네트워킹 구성은 네트워크 ATC에 의해 관리되며 의도는 정상입니다.</t>
+          <t>호스트 네트워킹 구성은 네트워크 ATC에 의해 관리되며 의도가 정상입니다.</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>RDMA는 스토리지 네트워킹에서 사용하도록 설정되어 있습니다.</t>
+          <t>스토리지 네트워킹에서 RDMA를 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>RDMA 구성의 유효성을 검사하기 위해 Test-RDMA.ps1이 실행되었습니다</t>
+          <t>Test-RDMA.ps1 RDMA 구성의 유효성을 검사하기 위해 실행되었습니다.</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>5개 이상의 네트워크 컨트롤러 VM이 배포되어 있습니다.</t>
+          <t>3개 이상의 네트워크 컨트롤러 VM이 배포되어 있습니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>이렇게 하면 NC 업그레이드 중에 항상 3개 이상의 NC가 활성화됩니다.</t>
+          <t>이렇게 하면 NC 업그레이드 중에 항상 3개 이상의 NC를 활성화할 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>Azure Monitor, SCOM 또는 타사 솔루션을 사용하여 클러스터에 대한 경고가 구성되었습니다</t>
+          <t>Azure Monitor, SCOM 또는 타사 솔루션을 사용하여 클러스터에 대한 경고가 구성되었습니다.</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>클러스터 수준에서 Insights가 활성화되었으며 모든 노드가 데이터를 보고하고 있습니다.</t>
+          <t>Insights가 클러스터 수준에서 활성화되었으며 모든 노드가 데이터를 보고하고 있습니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>Azure CLI는 WAC에서 RB 관리를 사용하도록 설정하기 위해 모든 노드에 설치되었습니다</t>
+          <t>WAC에서 RB를 관리할 수 있도록 Azure CLI가 모든 노드에 설치되었습니다</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2424,7 +2424,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>DHCP는 Azure에서 VM을 배포할 때 게스트 구성을 지원하기 위해 클러스터에서 사용할 수 있습니다</t>
+          <t>DHCP는 Azure에서 VM 배포 시 게스트 구성을 지원하기 위해 클러스터에서 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="C42" s="21" t="inlineStr">
         <is>
-          <t>Windows 및 하드웨어 업데이트(사용 가능한 경우)에 대해 Cluster-Aware 업데이트가 구성되었습니다.</t>
+          <t>Cluster-Aware 업데이트가 Windows 및 하드웨어 업데이트(사용 가능한 경우)에 대해 구성되었습니다.</t>
         </is>
       </c>
       <c r="D42" s="21" t="n"/>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>환경의 유효성을 검사하기 위해 환경 검사기 모듈이 실행되었습니다.</t>
+          <t>환경 검사기 모듈이 환경의 유효성을 검사하기 위해 실행되었습니다.</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>동기 복제가 AAD로 구성되는 경우 각 사이트 간에 5ms 미만의 대기 시간이 있습니다</t>
+          <t>동기 복제가 AAD로 구성되는 경우 각 사이트 간에 대기 시간이 5ms 미만입니다.</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2916,7 +2916,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>확장된 VLAN 구성에서 제외된 관리, 복제 및 스토리지 네트워크는 라우팅되고 서로 다른 서브넷에 있습니다</t>
+          <t>확장된 VLAN 구성에서 제외된 관리, 복제 및 스토리지 네트워크는 라우팅되고 다른 서브넷에 있습니다</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>사이트 오류 및 복구에 대한 자세한 계획이 있습니다</t>
+          <t>사이트 장애 및 복구에 대한 자세한 계획이 있습니다.</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3041,7 +3041,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>노드가 5개 미만인 클러스터에 대한 클러스터 쿼럼에 대해 세 번째 사이트에서 클라우드 감시 또는 파일 공유 감시를 사용합니다</t>
+          <t>노드가 5개 미만인 클러스터의 클러스터 쿼럼에 대해 세 번째 사이트에서 클라우드 감시 또는 파일 공유 감시를 사용합니다.</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>데이터 중복 제거를 사용하는 경우 기본/소스 볼륨에서만 사용하도록 설정합니다</t>
+          <t>데이터 중복 제거를 사용하는 경우 기본/소스 볼륨에서만 활성화합니다</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3132,7 +3132,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>스토리지 백업 로그 볼륨은 더 빠르거나(이상적으로는) 적어도 용량 스토리지만큼 빨라야 합니다</t>
+          <t>스토리지 백업 로그 볼륨은 더 빠르거나(이상적으로) 최소한 용량 스토리지만큼 빨라야 합니다</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>BitLocker는 적절한 경우 볼륨 암호화를 위해 CSV에서 사용하도록 설정되었습니다</t>
+          <t>BitLocker는 해당하는 경우 볼륨 암호화를 위해 CSV에서 사용하도록 설정되었습니다</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 SMB 암호화가 사용하도록 설정되었습니다.</t>
+          <t>해당하는 경우 SMB 암호화가 활성화되었습니다.</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>모든 노드에서 Microsoft Defender 바이러스 백신을 사용할 수 있습니다.</t>
+          <t>모든 노드에서 Microsoft Defender 바이러스 백신을 사용하도록 설정했습니다.</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>적절한 경우 Credential Guard가 구성되었습니다.</t>
+          <t>해당하는 경우 Credential Guard가 구성되었습니다.</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -7286,7 +7286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7443,7 +7443,7 @@
     <row r="5">
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>필요하지 않음</t>
+          <t>필요 없음</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>권장 사항을 이해했지만 현재 요구 사항에는 필요하지 않습니다.</t>
+          <t>권장 사항은 이해되었지만 현재 요구 사항에 필요하지 않음</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -7465,7 +7465,7 @@
     <row r="6">
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>해당 사항 없음</t>
+          <t>해당 없음</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -7481,6 +7481,13 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>안전</t>
         </is>
       </c>
     </row>
